--- a/runs/run922/NotionalETEOutput922.xlsx
+++ b/runs/run922/NotionalETEOutput922.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_HIGHWIND0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_306.MISSILE_ANGERMAX0_306</t>
+    <t>MISSILE_HIGHWIND0_400.MISSILE_HIGHWIND0_400</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_HIGHWIND0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1499.414968549893</v>
+        <v>-1562.185343596851</v>
       </c>
       <c r="J2">
-        <v>1970.079677170237</v>
+        <v>1964.959360154037</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1523.030108602205</v>
+        <v>-1404.942224260976</v>
       </c>
       <c r="J3">
-        <v>1860.875636076323</v>
+        <v>1942.887187160107</v>
       </c>
       <c r="K3">
-        <v>301.4836605662928</v>
+        <v>303.1430485614929</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1399.021266924202</v>
+        <v>-1478.218697383562</v>
       </c>
       <c r="J4">
-        <v>1898.387660734904</v>
+        <v>1997.020203147259</v>
       </c>
       <c r="K4">
-        <v>602.3702989495274</v>
+        <v>579.4705341998512</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1344.953583910051</v>
+        <v>-1440.955209320796</v>
       </c>
       <c r="J5">
-        <v>1836.740973379535</v>
+        <v>1761.463746672384</v>
       </c>
       <c r="K5">
-        <v>841.8659009289408</v>
+        <v>887.1584829500555</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1442.224448212949</v>
+        <v>-1433.818875857386</v>
       </c>
       <c r="J6">
-        <v>1813.696396631514</v>
+        <v>1749.19768963832</v>
       </c>
       <c r="K6">
-        <v>1143.480946184023</v>
+        <v>1071.687065169248</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1289.433480818402</v>
+        <v>-1377.566792151548</v>
       </c>
       <c r="J7">
-        <v>1844.417632802816</v>
+        <v>1727.698933169918</v>
       </c>
       <c r="K7">
-        <v>1401.534268033098</v>
+        <v>1397.068311478888</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1309.814767725062</v>
+        <v>-1308.989903842245</v>
       </c>
       <c r="J8">
-        <v>1728.407299701207</v>
+        <v>1727.388903225739</v>
       </c>
       <c r="K8">
-        <v>1560.270341929636</v>
+        <v>1627.434547294215</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.0103930598474</v>
+        <v>-97.35983702306528</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1268.156259940427</v>
+        <v>-1222.156494142486</v>
       </c>
       <c r="J9">
-        <v>1717.72326575176</v>
+        <v>1639.806880255322</v>
       </c>
       <c r="K9">
-        <v>1803.121754912376</v>
+        <v>1766.537273154456</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>209.0739625830153</v>
+        <v>219.5050764924007</v>
       </c>
       <c r="G10">
-        <v>-79.32448040320475</v>
+        <v>-82.00377615944903</v>
       </c>
       <c r="H10">
-        <v>890.9916894322372</v>
+        <v>850.579891710636</v>
       </c>
       <c r="I10">
-        <v>-1213.291442253942</v>
+        <v>-1286.170614472498</v>
       </c>
       <c r="J10">
-        <v>1584.964807444312</v>
+        <v>1616.661184343588</v>
       </c>
       <c r="K10">
-        <v>2071.816260677089</v>
+        <v>2013.714306089782</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>160.4989719716123</v>
+        <v>163.5496613737658</v>
       </c>
       <c r="G11">
-        <v>-67.95445740075178</v>
+        <v>-66.95505050005632</v>
       </c>
       <c r="H11">
-        <v>1101.12985318162</v>
+        <v>1030.128112299744</v>
       </c>
       <c r="I11">
-        <v>-1253.152806179556</v>
+        <v>-1242.456139299848</v>
       </c>
       <c r="J11">
-        <v>1616.586806873994</v>
+        <v>1618.23067681271</v>
       </c>
       <c r="K11">
-        <v>2106.617984738753</v>
+        <v>2285.636198378929</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>147.0145429213489</v>
+        <v>135.9992532736044</v>
       </c>
       <c r="G12">
-        <v>-51.78966283305181</v>
+        <v>-49.67133241061886</v>
       </c>
       <c r="H12">
-        <v>1205.327812456133</v>
+        <v>1221.830880856088</v>
       </c>
       <c r="I12">
-        <v>-1183.558311426403</v>
+        <v>-1121.293635161675</v>
       </c>
       <c r="J12">
-        <v>1578.474380239309</v>
+        <v>1451.36611967682</v>
       </c>
       <c r="K12">
-        <v>2289.725385013051</v>
+        <v>2452.3026693527</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.1681119454397</v>
+        <v>118.001722645411</v>
       </c>
       <c r="G13">
-        <v>-33.69182373404159</v>
+        <v>-34.86682124694541</v>
       </c>
       <c r="H13">
-        <v>1275.422444599187</v>
+        <v>1226.119359145128</v>
       </c>
       <c r="I13">
-        <v>-1132.444496226886</v>
+        <v>-1076.511892383219</v>
       </c>
       <c r="J13">
-        <v>1461.861707594328</v>
+        <v>1401.589248702478</v>
       </c>
       <c r="K13">
-        <v>2397.767661278614</v>
+        <v>2391.758561288265</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>104.7450286314857</v>
+        <v>109.5523588623316</v>
       </c>
       <c r="G14">
-        <v>-18.04340268451523</v>
+        <v>-18.11436392647909</v>
       </c>
       <c r="H14">
-        <v>1317.854905789609</v>
+        <v>1357.507742853981</v>
       </c>
       <c r="I14">
-        <v>-1068.876041115329</v>
+        <v>-1098.539070585141</v>
       </c>
       <c r="J14">
-        <v>1455.27684685007</v>
+        <v>1432.826320792278</v>
       </c>
       <c r="K14">
-        <v>2729.580113666678</v>
+        <v>2672.790189523422</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.1157013862105</v>
+        <v>99.25402460883353</v>
       </c>
       <c r="G15">
-        <v>-0.8844027315449645</v>
+        <v>-0.9638806610110661</v>
       </c>
       <c r="H15">
-        <v>1365.221823946331</v>
+        <v>1392.263524489111</v>
       </c>
       <c r="I15">
-        <v>-1004.892135457137</v>
+        <v>-1026.6649427265</v>
       </c>
       <c r="J15">
-        <v>1418.373766540959</v>
+        <v>1361.213192323382</v>
       </c>
       <c r="K15">
-        <v>2882.140391608836</v>
+        <v>2645.33532817062</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.79494719337163</v>
+        <v>95.38431458984815</v>
       </c>
       <c r="G16">
-        <v>16.05687514463519</v>
+        <v>15.96190221264466</v>
       </c>
       <c r="H16">
-        <v>1468.878283591901</v>
+        <v>1452.267502310149</v>
       </c>
       <c r="I16">
-        <v>-993.7495300214183</v>
+        <v>-1017.038511464197</v>
       </c>
       <c r="J16">
-        <v>1355.832909954946</v>
+        <v>1257.728472543889</v>
       </c>
       <c r="K16">
-        <v>3004.756668980453</v>
+        <v>2937.242391738915</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>82.67304733580231</v>
+        <v>86.5475705767481</v>
       </c>
       <c r="G17">
-        <v>33.56305119369912</v>
+        <v>33.17626618801619</v>
       </c>
       <c r="H17">
-        <v>1510.303454173915</v>
+        <v>1414.814358975656</v>
       </c>
       <c r="I17">
-        <v>-976.858079175582</v>
+        <v>-982.6651950973821</v>
       </c>
       <c r="J17">
-        <v>1276.5119737489</v>
+        <v>1250.914263869195</v>
       </c>
       <c r="K17">
-        <v>2982.216788559387</v>
+        <v>2991.046020946761</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.52140670994513</v>
+        <v>81.60568771633547</v>
       </c>
       <c r="G18">
-        <v>50.92808451502015</v>
+        <v>46.21782284499002</v>
       </c>
       <c r="H18">
-        <v>1485.845202036079</v>
+        <v>1459.745046792951</v>
       </c>
       <c r="I18">
-        <v>-961.9329768398137</v>
+        <v>-902.8700032812868</v>
       </c>
       <c r="J18">
-        <v>1206.214828748692</v>
+        <v>1174.855290737522</v>
       </c>
       <c r="K18">
-        <v>2909.200143995343</v>
+        <v>3068.020821948022</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.17793644352059</v>
+        <v>78.06845372891927</v>
       </c>
       <c r="G19">
-        <v>67.81560734753234</v>
+        <v>67.89782533568896</v>
       </c>
       <c r="H19">
-        <v>1473.631172324009</v>
+        <v>1527.909132477035</v>
       </c>
       <c r="I19">
-        <v>-870.9859851295591</v>
+        <v>-873.830611149667</v>
       </c>
       <c r="J19">
-        <v>1224.279969506179</v>
+        <v>1162.469164700346</v>
       </c>
       <c r="K19">
-        <v>3144.676563126033</v>
+        <v>3061.29627853978</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.32661270907748</v>
+        <v>74.64513023595947</v>
       </c>
       <c r="G20">
-        <v>85.1812555740416</v>
+        <v>83.43408101658932</v>
       </c>
       <c r="H20">
-        <v>1516.536789984252</v>
+        <v>1505.287375640426</v>
       </c>
       <c r="I20">
-        <v>-814.4469258283779</v>
+        <v>-826.6957652791384</v>
       </c>
       <c r="J20">
-        <v>1086.438937301889</v>
+        <v>1111.711132618082</v>
       </c>
       <c r="K20">
-        <v>3077.797855992008</v>
+        <v>3202.935944631065</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.69192683335891</v>
+        <v>67.51170641385404</v>
       </c>
       <c r="G21">
-        <v>101.1191107819097</v>
+        <v>102.5963108626677</v>
       </c>
       <c r="H21">
-        <v>1523.486708019387</v>
+        <v>1555.831530524144</v>
       </c>
       <c r="I21">
-        <v>-813.6684591615816</v>
+        <v>-784.737758203838</v>
       </c>
       <c r="J21">
-        <v>1128.189961090613</v>
+        <v>1066.339472393292</v>
       </c>
       <c r="K21">
-        <v>3236.809830333492</v>
+        <v>3329.258756998844</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.80704763095964</v>
+        <v>69.5771373573903</v>
       </c>
       <c r="G22">
-        <v>120.0838669484443</v>
+        <v>113.8684455624392</v>
       </c>
       <c r="H22">
-        <v>1620.204166865651</v>
+        <v>1608.029870220788</v>
       </c>
       <c r="I22">
-        <v>-757.575438998333</v>
+        <v>-770.5762178351389</v>
       </c>
       <c r="J22">
-        <v>1067.692298312544</v>
+        <v>976.6860008524942</v>
       </c>
       <c r="K22">
-        <v>3132.604316980855</v>
+        <v>3311.523602733442</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.72235664214215</v>
+        <v>64.46694290688782</v>
       </c>
       <c r="G23">
-        <v>129.4239527267328</v>
+        <v>131.673366553723</v>
       </c>
       <c r="H23">
-        <v>1707.974637015754</v>
+        <v>1690.652634774913</v>
       </c>
       <c r="I23">
-        <v>-712.7620854219741</v>
+        <v>-705.5288129358242</v>
       </c>
       <c r="J23">
-        <v>986.8581438709639</v>
+        <v>1005.173744517781</v>
       </c>
       <c r="K23">
-        <v>3193.876593624421</v>
+        <v>3321.70885644247</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.01558378052343</v>
+        <v>62.24471687533522</v>
       </c>
       <c r="G24">
-        <v>146.5814953621732</v>
+        <v>149.0442613000962</v>
       </c>
       <c r="H24">
-        <v>1628.682858034142</v>
+        <v>1597.88356976273</v>
       </c>
       <c r="I24">
-        <v>-666.3056281112006</v>
+        <v>-651.2727483155414</v>
       </c>
       <c r="J24">
-        <v>921.030215061422</v>
+        <v>949.0434160790039</v>
       </c>
       <c r="K24">
-        <v>3283.853289143588</v>
+        <v>3323.842377670415</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.66897205071146</v>
+        <v>59.4463544055569</v>
       </c>
       <c r="G25">
-        <v>164.5380199242786</v>
+        <v>161.9251935009456</v>
       </c>
       <c r="H25">
-        <v>1658.999199492336</v>
+        <v>1676.073722378501</v>
       </c>
       <c r="I25">
-        <v>-626.3442406070188</v>
+        <v>-572.2196872419935</v>
       </c>
       <c r="J25">
-        <v>877.9231837107233</v>
+        <v>897.3704627902222</v>
       </c>
       <c r="K25">
-        <v>3047.124275471687</v>
+        <v>3064.827426134167</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.53920232510141</v>
+        <v>57.85731766612798</v>
       </c>
       <c r="G26">
-        <v>173.678442562087</v>
+        <v>188.4221782643546</v>
       </c>
       <c r="H26">
-        <v>1658.399002917675</v>
+        <v>1766.621489056757</v>
       </c>
       <c r="I26">
-        <v>-519.9986467768185</v>
+        <v>-544.306321156294</v>
       </c>
       <c r="J26">
-        <v>796.0871577879506</v>
+        <v>855.1780355100424</v>
       </c>
       <c r="K26">
-        <v>3011.103991104816</v>
+        <v>3249.1202712586</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.19767048077837</v>
+        <v>59.65801660168977</v>
       </c>
       <c r="G27">
-        <v>195.8020786642461</v>
+        <v>204.2257143235577</v>
       </c>
       <c r="H27">
-        <v>1700.55340986702</v>
+        <v>1628.378142474035</v>
       </c>
       <c r="I27">
-        <v>-515.0773705258831</v>
+        <v>-494.3415589376361</v>
       </c>
       <c r="J27">
-        <v>771.7211173563417</v>
+        <v>779.1904643800326</v>
       </c>
       <c r="K27">
-        <v>3064.253038442033</v>
+        <v>2945.712822946273</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.46948467718433</v>
+        <v>54.29105285401656</v>
       </c>
       <c r="G28">
-        <v>216.4101144613724</v>
+        <v>222.0908121730394</v>
       </c>
       <c r="H28">
-        <v>1729.089538618758</v>
+        <v>1725.240468069447</v>
       </c>
       <c r="I28">
-        <v>-420.2888027047337</v>
+        <v>-436.1659248338473</v>
       </c>
       <c r="J28">
-        <v>713.8542598107034</v>
+        <v>751.8121479770464</v>
       </c>
       <c r="K28">
-        <v>3111.831275361224</v>
+        <v>2950.393199425968</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.43969241105598</v>
+        <v>55.89904350024778</v>
       </c>
       <c r="G29">
-        <v>239.1626057066986</v>
+        <v>237.630628286221</v>
       </c>
       <c r="H29">
-        <v>1760.05532950752</v>
+        <v>1786.792455135796</v>
       </c>
       <c r="I29">
-        <v>-397.0749358102357</v>
+        <v>-400.5789185926315</v>
       </c>
       <c r="J29">
-        <v>688.1896016362861</v>
+        <v>660.4470285730815</v>
       </c>
       <c r="K29">
-        <v>2798.474478236729</v>
+        <v>2920.301581910329</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.82966120869774</v>
+        <v>51.77501382856926</v>
       </c>
       <c r="G30">
-        <v>256.185210232411</v>
+        <v>247.5633318436236</v>
       </c>
       <c r="H30">
-        <v>1769.076807184348</v>
+        <v>1751.076648325533</v>
       </c>
       <c r="I30">
-        <v>-326.3605260442056</v>
+        <v>-336.2472699698434</v>
       </c>
       <c r="J30">
-        <v>665.3054747634432</v>
+        <v>662.7775639041453</v>
       </c>
       <c r="K30">
-        <v>2883.124576487177</v>
+        <v>2789.266486470797</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.01273706410473</v>
+        <v>50.0437504516682</v>
       </c>
       <c r="G31">
-        <v>274.3798447806108</v>
+        <v>264.5336920725662</v>
       </c>
       <c r="H31">
-        <v>1824.622646592999</v>
+        <v>1764.677180195293</v>
       </c>
       <c r="I31">
-        <v>-271.6386743251486</v>
+        <v>-257.0872239630406</v>
       </c>
       <c r="J31">
-        <v>594.0786350541332</v>
+        <v>578.9567637729861</v>
       </c>
       <c r="K31">
-        <v>2647.744519603995</v>
+        <v>2702.445784133139</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.64067800379308</v>
+        <v>51.22555674116371</v>
       </c>
       <c r="G32">
-        <v>269.5508305908831</v>
+        <v>266.1734117126795</v>
       </c>
       <c r="H32">
-        <v>1776.292606741861</v>
+        <v>1700.246540380144</v>
       </c>
       <c r="I32">
-        <v>-203.5360225642005</v>
+        <v>-212.0886107227225</v>
       </c>
       <c r="J32">
-        <v>558.5166389512925</v>
+        <v>548.7155573512327</v>
       </c>
       <c r="K32">
-        <v>2561.3417943271</v>
+        <v>2463.935830937777</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.45366306346737</v>
+        <v>51.64067341366031</v>
       </c>
       <c r="G33">
-        <v>283.4140655925011</v>
+        <v>288.1608081959299</v>
       </c>
       <c r="H33">
-        <v>1803.521924377739</v>
+        <v>1829.769950212924</v>
       </c>
       <c r="I33">
-        <v>-145.980824211865</v>
+        <v>-148.0615379701047</v>
       </c>
       <c r="J33">
-        <v>483.7832783172786</v>
+        <v>502.2716704615623</v>
       </c>
       <c r="K33">
-        <v>2357.960353599437</v>
+        <v>2444.630967687803</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>46.98917572764368</v>
+        <v>50.35441788566726</v>
       </c>
       <c r="G34">
-        <v>325.6379876280182</v>
+        <v>325.9814310747794</v>
       </c>
       <c r="H34">
-        <v>1807.16717316567</v>
+        <v>1756.691710210856</v>
       </c>
       <c r="I34">
-        <v>-86.80713982426057</v>
+        <v>-81.21291019130543</v>
       </c>
       <c r="J34">
-        <v>462.9030267932958</v>
+        <v>456.2401988642961</v>
       </c>
       <c r="K34">
-        <v>2274.638665935452</v>
+        <v>2253.358484025941</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.29945709542584</v>
+        <v>48.19602390341989</v>
       </c>
       <c r="G35">
-        <v>326.4894527911333</v>
+        <v>333.0285216521467</v>
       </c>
       <c r="H35">
-        <v>1785.911697208948</v>
+        <v>1843.030104304893</v>
       </c>
       <c r="I35">
-        <v>-18.00306611436132</v>
+        <v>-18.09371010139438</v>
       </c>
       <c r="J35">
-        <v>393.0623047294814</v>
+        <v>388.4026201796892</v>
       </c>
       <c r="K35">
-        <v>1994.753100914317</v>
+        <v>2094.623368831128</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.95539029658125</v>
+        <v>45.05547918013723</v>
       </c>
       <c r="G36">
-        <v>334.1471066920574</v>
+        <v>338.7644898332425</v>
       </c>
       <c r="H36">
-        <v>1828.960022936996</v>
+        <v>1747.711040393109</v>
       </c>
       <c r="I36">
-        <v>47.98991302557103</v>
+        <v>47.02088650335178</v>
       </c>
       <c r="J36">
-        <v>353.2036158161621</v>
+        <v>361.7688064221756</v>
       </c>
       <c r="K36">
-        <v>1886.535253945346</v>
+        <v>1915.115252342386</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.14807489755606</v>
+        <v>46.21613315623198</v>
       </c>
       <c r="G37">
-        <v>350.7363214686303</v>
+        <v>361.6866786631487</v>
       </c>
       <c r="H37">
-        <v>1769.478129292192</v>
+        <v>1755.243928963073</v>
       </c>
       <c r="I37">
-        <v>118.0102017426496</v>
+        <v>113.7620806121186</v>
       </c>
       <c r="J37">
-        <v>292.9188106168804</v>
+        <v>284.4927681969854</v>
       </c>
       <c r="K37">
-        <v>1543.06492378987</v>
+        <v>1556.298201480063</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.88448488914455</v>
+        <v>46.56007630253377</v>
       </c>
       <c r="G38">
-        <v>373.0916321285962</v>
+        <v>361.6394013502776</v>
       </c>
       <c r="H38">
-        <v>1926.981306019861</v>
+        <v>1781.898870495212</v>
       </c>
       <c r="I38">
-        <v>191.0833231372001</v>
+        <v>193.2962642913438</v>
       </c>
       <c r="J38">
-        <v>243.9861761549932</v>
+        <v>243.4194674960905</v>
       </c>
       <c r="K38">
-        <v>1448.846517196783</v>
+        <v>1376.806644620746</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.46542042267831</v>
+        <v>43.45594528252364</v>
       </c>
       <c r="G39">
-        <v>398.8659355452129</v>
+        <v>379.3502449757644</v>
       </c>
       <c r="H39">
-        <v>1783.717595314405</v>
+        <v>1812.449328879359</v>
       </c>
       <c r="I39">
-        <v>249.8563542796365</v>
+        <v>264.3399742215061</v>
       </c>
       <c r="J39">
-        <v>197.3696756720315</v>
+        <v>193.8687741321851</v>
       </c>
       <c r="K39">
-        <v>1194.630803982541</v>
+        <v>1160.467777967375</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.53277959116571</v>
+        <v>43.7285173798313</v>
       </c>
       <c r="G40">
-        <v>412.6570377937589</v>
+        <v>406.0236701912664</v>
       </c>
       <c r="H40">
-        <v>1813.855800589762</v>
+        <v>1785.749701341768</v>
       </c>
       <c r="I40">
-        <v>331.6016885850151</v>
+        <v>322.4424361343715</v>
       </c>
       <c r="J40">
-        <v>147.7671225840641</v>
+        <v>156.6531429754091</v>
       </c>
       <c r="K40">
-        <v>893.0842307351708</v>
+        <v>868.1112156506509</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.81050817869919</v>
+        <v>43.76152702926716</v>
       </c>
       <c r="G41">
-        <v>439.1807721663572</v>
+        <v>439.806499605964</v>
       </c>
       <c r="H41">
-        <v>1789.302992927246</v>
+        <v>1918.738993703666</v>
       </c>
       <c r="I41">
-        <v>406.3445998189894</v>
+        <v>385.896191436999</v>
       </c>
       <c r="J41">
-        <v>99.93216756095214</v>
+        <v>99.68941014607725</v>
       </c>
       <c r="K41">
-        <v>595.0895854181787</v>
+        <v>629.9577308369635</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.84351913440606</v>
+        <v>44.90256674131172</v>
       </c>
       <c r="G42">
-        <v>438.0643138637436</v>
+        <v>453.3129609571743</v>
       </c>
       <c r="H42">
-        <v>1975.894662375872</v>
+        <v>1810.900771348341</v>
       </c>
       <c r="I42">
-        <v>464.0970504178101</v>
+        <v>492.4779766831473</v>
       </c>
       <c r="J42">
-        <v>54.12551604555188</v>
+        <v>55.34377425903024</v>
       </c>
       <c r="K42">
-        <v>350.2517633720457</v>
+        <v>339.3709908676369</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.46738559711979</v>
+        <v>40.89807887148152</v>
       </c>
       <c r="G43">
-        <v>447.3336295220305</v>
+        <v>446.7025383319458</v>
       </c>
       <c r="H43">
-        <v>1970.172047572789</v>
+        <v>1901.155018187686</v>
       </c>
       <c r="I43">
-        <v>548.894865202265</v>
+        <v>537.2561785483235</v>
       </c>
       <c r="J43">
-        <v>5.394377186362981</v>
+        <v>5.150990130057576</v>
       </c>
       <c r="K43">
-        <v>32.85418058183989</v>
+        <v>34.12921894896203</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.9228527689683</v>
+        <v>40.90536891055719</v>
       </c>
       <c r="G44">
-        <v>488.8545623436921</v>
+        <v>473.3027932198739</v>
       </c>
       <c r="H44">
-        <v>1902.390132105439</v>
+        <v>1910.103369119175</v>
       </c>
       <c r="I44">
-        <v>619.732389966486</v>
+        <v>650.6629896492041</v>
       </c>
       <c r="J44">
-        <v>-45.33636918129809</v>
+        <v>-41.59842364576482</v>
       </c>
       <c r="K44">
-        <v>-274.8445052779688</v>
+        <v>-283.8866369851991</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.42619460787785</v>
+        <v>39.12512972767988</v>
       </c>
       <c r="G45">
-        <v>492.3863909385202</v>
+        <v>500.7543237868853</v>
       </c>
       <c r="H45">
-        <v>1913.124964775578</v>
+        <v>1944.281601732898</v>
       </c>
       <c r="I45">
-        <v>715.3511411974706</v>
+        <v>709.3268999127007</v>
       </c>
       <c r="J45">
-        <v>-90.56783931224288</v>
+        <v>-92.52348012559952</v>
       </c>
       <c r="K45">
-        <v>-586.0251754638543</v>
+        <v>-589.4220480203571</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.74669396795953</v>
+        <v>40.30653010351705</v>
       </c>
       <c r="G46">
-        <v>531.6602336505305</v>
+        <v>497.589770241469</v>
       </c>
       <c r="H46">
-        <v>1960.53289745464</v>
+        <v>1845.309038844863</v>
       </c>
       <c r="I46">
-        <v>787.0053677601984</v>
+        <v>827.742473541491</v>
       </c>
       <c r="J46">
-        <v>-146.6987442228884</v>
+        <v>-140.9072129435348</v>
       </c>
       <c r="K46">
-        <v>-923.4605031136101</v>
+        <v>-946.4088753929849</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.55575584833434</v>
+        <v>39.37156580301032</v>
       </c>
       <c r="G47">
-        <v>520.6211282216225</v>
+        <v>546.0075922508781</v>
       </c>
       <c r="H47">
-        <v>1928.043454576593</v>
+        <v>1949.25540824166</v>
       </c>
       <c r="I47">
-        <v>929.6085421558686</v>
+        <v>884.8161787007446</v>
       </c>
       <c r="J47">
-        <v>-186.8058002746694</v>
+        <v>-181.3221554005438</v>
       </c>
       <c r="K47">
-        <v>-1281.620935804635</v>
+        <v>-1355.070165459086</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.86951416919631</v>
+        <v>40.07365877521462</v>
       </c>
       <c r="G48">
-        <v>519.8500725034069</v>
+        <v>564.8552092005758</v>
       </c>
       <c r="H48">
-        <v>1960.018918881895</v>
+        <v>1870.685769849199</v>
       </c>
       <c r="I48">
-        <v>1015.569835571403</v>
+        <v>962.7290402605836</v>
       </c>
       <c r="J48">
-        <v>-238.6485125294904</v>
+        <v>-231.5873935690083</v>
       </c>
       <c r="K48">
-        <v>-1660.600568295102</v>
+        <v>-1653.891176432522</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.9359804095234</v>
+        <v>37.60093924684522</v>
       </c>
       <c r="G49">
-        <v>551.8466532212242</v>
+        <v>548.2400660657115</v>
       </c>
       <c r="H49">
-        <v>1979.660818592705</v>
+        <v>1903.182444673966</v>
       </c>
       <c r="I49">
-        <v>1084.00791210625</v>
+        <v>1022.231544482646</v>
       </c>
       <c r="J49">
-        <v>-276.4291611223666</v>
+        <v>-272.3214401285136</v>
       </c>
       <c r="K49">
-        <v>-2041.439531071778</v>
+        <v>-2193.380426982743</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.89375679947602</v>
+        <v>37.73780297249903</v>
       </c>
       <c r="G50">
-        <v>600.1868702970844</v>
+        <v>591.137785509301</v>
       </c>
       <c r="H50">
-        <v>2029.593593932466</v>
+        <v>1993.657726509348</v>
       </c>
       <c r="I50">
-        <v>1211.910942746475</v>
+        <v>1202.573257557</v>
       </c>
       <c r="J50">
-        <v>-336.3718504233884</v>
+        <v>-350.6056299591212</v>
       </c>
       <c r="K50">
-        <v>-2384.498226728517</v>
+        <v>-2523.725687221963</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.43383870654117</v>
+        <v>37.39075191717109</v>
       </c>
       <c r="G51">
-        <v>580.168813566095</v>
+        <v>584.5958925921127</v>
       </c>
       <c r="H51">
-        <v>2040.789334659828</v>
+        <v>2039.092545329201</v>
       </c>
       <c r="I51">
-        <v>1246.83893384352</v>
+        <v>1198.229157095408</v>
       </c>
       <c r="J51">
-        <v>-383.3831706752026</v>
+        <v>-367.8677216219281</v>
       </c>
       <c r="K51">
-        <v>-2787.803967635029</v>
+        <v>-3040.443586567906</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.80893633224665</v>
+        <v>38.4722135662897</v>
       </c>
       <c r="G52">
-        <v>601.436636938633</v>
+        <v>589.4284707542311</v>
       </c>
       <c r="H52">
-        <v>2000.63721697027</v>
+        <v>1947.841808587655</v>
       </c>
       <c r="I52">
-        <v>1349.913540742378</v>
+        <v>1325.697244545602</v>
       </c>
       <c r="J52">
-        <v>-412.6307399214885</v>
+        <v>-425.0827477814429</v>
       </c>
       <c r="K52">
-        <v>-3227.103568865116</v>
+        <v>-3445.433435194578</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.2460374946215</v>
+        <v>38.35737017775778</v>
       </c>
       <c r="G53">
-        <v>597.4982667116216</v>
+        <v>648.0858219292143</v>
       </c>
       <c r="H53">
-        <v>1880.150907222451</v>
+        <v>1910.597210342755</v>
       </c>
       <c r="I53">
-        <v>1416.335890500507</v>
+        <v>1463.229549005518</v>
       </c>
       <c r="J53">
-        <v>-485.3082225262797</v>
+        <v>-480.1746187404421</v>
       </c>
       <c r="K53">
-        <v>-3742.118006910116</v>
+        <v>-3733.502287904923</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.41629880775527</v>
+        <v>36.32411551357218</v>
       </c>
       <c r="G54">
-        <v>666.875259378712</v>
+        <v>620.6390738372079</v>
       </c>
       <c r="H54">
-        <v>1955.577322381149</v>
+        <v>1965.084099331531</v>
       </c>
       <c r="I54">
-        <v>1551.47483133997</v>
+        <v>1481.370996904261</v>
       </c>
       <c r="J54">
-        <v>-554.2568791488463</v>
+        <v>-509.2498808232011</v>
       </c>
       <c r="K54">
-        <v>-4223.703397957445</v>
+        <v>-4325.538433605364</v>
       </c>
     </row>
   </sheetData>
